--- a/data/wb_gdp10.xlsx
+++ b/data/wb_gdp10.xlsx
@@ -8108,7 +8108,7 @@
         <v>42736</v>
       </c>
       <c r="B596">
-        <v>11295052797674.5</v>
+        <v>11295052797674.6</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43101</v>
       </c>
       <c r="B697">
-        <v>15980834651544.8</v>
+        <v>15980834651544.9</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>43101</v>
       </c>
       <c r="B926">
-        <v>770673129573.4969</v>
+        <v>770673129573.496</v>
       </c>
       <c r="C926" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>40909</v>
       </c>
       <c r="B960">
-        <v>25290323829653.3</v>
+        <v>25219876638157.6</v>
       </c>
       <c r="C960" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>41275</v>
       </c>
       <c r="B961">
-        <v>26684963004699.3</v>
+        <v>26607962408037.8</v>
       </c>
       <c r="C961" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         <v>41640</v>
       </c>
       <c r="B962">
-        <v>27596941006701.8</v>
+        <v>27514412480472.3</v>
       </c>
       <c r="C962" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>42005</v>
       </c>
       <c r="B963">
-        <v>25854269037047</v>
+        <v>25769037830754.9</v>
       </c>
       <c r="C963" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>42370</v>
       </c>
       <c r="B964">
-        <v>26059940722552</v>
+        <v>25971815005987.3</v>
       </c>
       <c r="C964" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>42736</v>
       </c>
       <c r="B965">
-        <v>28770093733644.2</v>
+        <v>28675620827989.3</v>
       </c>
       <c r="C965" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>43101</v>
       </c>
       <c r="B966">
-        <v>30603243270660.4</v>
+        <v>30508707051010.7</v>
       </c>
       <c r="C966" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>43466</v>
       </c>
       <c r="B967">
-        <v>31250632838977.7</v>
+        <v>31161651244685.8</v>
       </c>
       <c r="C967" t="inlineStr">
         <is>
@@ -12944,7 +12944,7 @@
         <v>43831</v>
       </c>
       <c r="B968">
-        <v>30068953560995.4</v>
+        <v>29983640102790.9</v>
       </c>
       <c r="C968" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>44197</v>
       </c>
       <c r="B969">
-        <v>35511412304437.1</v>
+        <v>35422666453577.8</v>
       </c>
       <c r="C969" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>41275</v>
       </c>
       <c r="B971">
-        <v>28640820758595.4</v>
+        <v>28640820758595.5</v>
       </c>
       <c r="C971" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         <v>42370</v>
       </c>
       <c r="B974">
-        <v>28166653534539.1</v>
+        <v>28166653534539.2</v>
       </c>
       <c r="C974" t="inlineStr">
         <is>
@@ -13100,7 +13100,7 @@
         <v>40909</v>
       </c>
       <c r="B980">
-        <v>1799427617246.46</v>
+        <v>1869873233032.51</v>
       </c>
       <c r="C980" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>41275</v>
       </c>
       <c r="B981">
-        <v>1955823662845.57</v>
+        <v>2032823933865.96</v>
       </c>
       <c r="C981" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>41640</v>
       </c>
       <c r="B982">
-        <v>2109886623705.46</v>
+        <v>2192414282278.35</v>
       </c>
       <c r="C982" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>42005</v>
       </c>
       <c r="B983">
-        <v>2055693758982.22</v>
+        <v>2140838423140.73</v>
       </c>
       <c r="C983" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>42370</v>
       </c>
       <c r="B984">
-        <v>2105527558340.11</v>
+        <v>2193548945210.66</v>
       </c>
       <c r="C984" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>42736</v>
       </c>
       <c r="B985">
-        <v>2202010027410.68</v>
+        <v>2296411218098.06</v>
       </c>
       <c r="C985" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43101</v>
       </c>
       <c r="B986">
-        <v>2287680071731.45</v>
+        <v>2382176350289.43</v>
       </c>
       <c r="C986" t="inlineStr">
         <is>
@@ -13191,7 +13191,7 @@
         <v>43466</v>
       </c>
       <c r="B987">
-        <v>2348783962878.72</v>
+        <v>2437674347907.45</v>
       </c>
       <c r="C987" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>43831</v>
       </c>
       <c r="B988">
-        <v>2335046416001.58</v>
+        <v>2420221697709.39</v>
       </c>
       <c r="C988" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>44197</v>
       </c>
       <c r="B989">
-        <v>2549112031362.93</v>
+        <v>2637761933652.07</v>
       </c>
       <c r="C989" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>40909</v>
       </c>
       <c r="B1010">
-        <v>890414358244.603</v>
+        <v>960857789513.7791</v>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>41275</v>
       </c>
       <c r="B1011">
-        <v>966390675110.13</v>
+        <v>1043390605391.22</v>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>41640</v>
       </c>
       <c r="B1012">
-        <v>1033070152181.74</v>
+        <v>1115598368846.25</v>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>42005</v>
       </c>
       <c r="B1013">
-        <v>1038047201505.08</v>
+        <v>1123192003280.5</v>
       </c>
       <c r="C1013" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>42370</v>
       </c>
       <c r="B1014">
-        <v>1129336779558.84</v>
+        <v>1217294538250.46</v>
       </c>
       <c r="C1014" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         <v>42736</v>
       </c>
       <c r="B1015">
-        <v>1244052833501.53</v>
+        <v>1338336293756.6</v>
       </c>
       <c r="C1015" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>43101</v>
       </c>
       <c r="B1016">
-        <v>1240501586432.47</v>
+        <v>1334907831791.87</v>
       </c>
       <c r="C1016" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>43466</v>
       </c>
       <c r="B1017">
-        <v>1308461393704.39</v>
+        <v>1397068709519.02</v>
       </c>
       <c r="C1017" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43831</v>
       </c>
       <c r="B1018">
-        <v>1336381367316.97</v>
+        <v>1421149442425.13</v>
       </c>
       <c r="C1018" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44197</v>
       </c>
       <c r="B1019">
-        <v>1456252171238.16</v>
+        <v>1544391665494.86</v>
       </c>
       <c r="C1019" t="inlineStr">
         <is>
@@ -16064,7 +16064,7 @@
         <v>41275</v>
       </c>
       <c r="B1208">
-        <v>5386387130140.31</v>
+        <v>5386387130140.32</v>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>43831</v>
       </c>
       <c r="B1285">
-        <v>1176576556341.42</v>
+        <v>1176576556341.41</v>
       </c>
       <c r="C1285" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>42736</v>
       </c>
       <c r="B1730">
-        <v>398943208976.55</v>
+        <v>398943208976.551</v>
       </c>
       <c r="C1730" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>43831</v>
       </c>
       <c r="B1733">
-        <v>378315467558.569</v>
+        <v>378315467558.57</v>
       </c>
       <c r="C1733" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44197</v>
       </c>
       <c r="B1734">
-        <v>453948317534.684</v>
+        <v>453948317534.685</v>
       </c>
       <c r="C1734" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>40909</v>
       </c>
       <c r="B1865">
-        <v>45775120983869.7</v>
+        <v>45775120983869.8</v>
       </c>
       <c r="C1865" t="inlineStr">
         <is>
@@ -24709,7 +24709,7 @@
         <v>43831</v>
       </c>
       <c r="B1873">
-        <v>49697795866801.5</v>
+        <v>49697795866801.4</v>
       </c>
       <c r="C1873" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44197</v>
       </c>
       <c r="B1874">
-        <v>54972726099855.9</v>
+        <v>54972726099855.8</v>
       </c>
       <c r="C1874" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>41275</v>
       </c>
       <c r="B2232">
-        <v>6091229380317.19</v>
+        <v>6091229380317.18</v>
       </c>
       <c r="C2232" t="inlineStr">
         <is>
@@ -29428,7 +29428,7 @@
         <v>42736</v>
       </c>
       <c r="B2236">
-        <v>5592359316215.82</v>
+        <v>5592359316215.81</v>
       </c>
       <c r="C2236" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>43101</v>
       </c>
       <c r="B2237">
-        <v>5461289535166.39</v>
+        <v>5461289535166.38</v>
       </c>
       <c r="C2237" t="inlineStr">
         <is>
@@ -30013,7 +30013,7 @@
         <v>40909</v>
       </c>
       <c r="B2281">
-        <v>1707694878522.49</v>
+        <v>1707694878522.48</v>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
@@ -30130,7 +30130,7 @@
         <v>44197</v>
       </c>
       <c r="B2290">
-        <v>1929052252557.38</v>
+        <v>1929052252557.39</v>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>40909</v>
       </c>
       <c r="B2433">
-        <v>75500388177983.7</v>
+        <v>75500388177983.5</v>
       </c>
       <c r="C2433" t="inlineStr">
         <is>
@@ -32002,7 +32002,7 @@
         <v>41275</v>
       </c>
       <c r="B2434">
-        <v>77606228872414</v>
+        <v>77606228872413.91</v>
       </c>
       <c r="C2434" t="inlineStr">
         <is>
@@ -32054,7 +32054,7 @@
         <v>42736</v>
       </c>
       <c r="B2438">
-        <v>81409498368206</v>
+        <v>81409498368206.09</v>
       </c>
       <c r="C2438" t="inlineStr">
         <is>
